--- a/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_05/Convert an array to a column with TOCOL.xlsx
+++ b/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_05/Convert an array to a column with TOCOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emgarcia/_________Course Production/_______2022/Q3 2022/Excel Managing and Analyzing Data (2022)/2_Project/Exercise Files/Chap 03/03_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgizaykov/Desktop/Data-Science-Projects/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D791B-CBC9-804D-BCD8-89784021E6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97734607-3726-A340-AFC2-8B1209D3872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="12540" xr2:uid="{8B1B6C48-363E-4F40-AB70-67DCAB016EE7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8B1B6C48-363E-4F40-AB70-67DCAB016EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
@@ -152,7 +174,7 @@
     <t>PLAYED 1 TIME</t>
   </si>
   <si>
-    <t>Abe</t>
+    <t>Gregor</t>
   </si>
 </sst>
 </file>
@@ -508,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699C29EB-DE12-4F20-BD61-1D8CCBF4B316}">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -526,7 +548,17 @@
     <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <f>COUNTA(_xlfn.ANCHORARRAY(J4))</f>
+        <v>19</v>
+      </c>
+      <c r="L1">
+        <f t="shared" ref="K1:L1" si="0">COUNTA(_xlfn.ANCHORARRAY(L4))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -546,7 +578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +601,11 @@
         <v>33</v>
       </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,8 +624,16 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="str" cm="1">
+        <f t="array" ref="J4:J22">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TOCOL(C3:G14)))</f>
+        <v>Abram</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" ref="L4:L8">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TOCOL(C3:G14),,TRUE))</f>
+        <v>Alec</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,8 +652,14 @@
       <c r="G5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <v>Al</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Gregor</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -627,10 +676,16 @@
         <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Alec</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Michelle</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,8 +704,14 @@
       <c r="G7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <v>Anaïs</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Moe</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -669,11 +730,14 @@
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <v>Ashley</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Ryan</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -692,8 +756,11 @@
       <c r="G9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <v>Cecily</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,13 +774,16 @@
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <v>Diego</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -732,8 +802,11 @@
       <c r="G11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <v>Gregor</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -752,8 +825,11 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <v>Guy</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,8 +848,11 @@
       <c r="G13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <v>Jean-Pierre</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -791,6 +870,49 @@
       </c>
       <c r="G14" t="s">
         <v>30</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Max</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <v>Michelle</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <v>Moe</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <v>Percival</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <v>Rose</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <v>Ryan</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <v>Sienna</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <v>Stephanie</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <v>Uri</v>
       </c>
     </row>
   </sheetData>
